--- a/TestDrivenDev/TDD_PivotStructure/PivoteerWPF/ProjectSamples/Symmetrical.xlsx
+++ b/TestDrivenDev/TDD_PivotStructure/PivoteerWPF/ProjectSamples/Symmetrical.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="2by2" sheetId="1" r:id="rId1"/>
+    <sheet name="3by2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="16">
   <si>
     <t>F01</t>
   </si>
@@ -53,6 +54,15 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F12_1</t>
+  </si>
+  <si>
+    <t>F12_2</t>
   </si>
 </sst>
 </file>
@@ -387,7 +397,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -684,4 +694,679 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>